--- a/SourceCode/2024/April 2024/Rohith/Task4- Nifty/REFramework Nifty50/ExtractedNewData.xlsx
+++ b/SourceCode/2024/April 2024/Rohith/Task4- Nifty/REFramework Nifty50/ExtractedNewData.xlsx
@@ -8,6 +8,7 @@
   <x:sheets>
     <x:sheet name="Nifty50-20240412" sheetId="2" r:id="rId2"/>
     <x:sheet name="Nifty50-20240413" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Nifty50-20240415" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
     <x:t>LTP</x:t>
   </x:si>
@@ -39,6 +40,24 @@
   </x:si>
   <x:si>
     <x:t>3.78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22,272.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-1.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>613.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.40</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -486,4 +505,56 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B4"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>